--- a/TMAM_Metrics.xlsx
+++ b/TMAM_Metrics.xlsx
@@ -9,17 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="750" windowWidth="22380" windowHeight="12945"/>
+    <workbookView xWindow="2280" yWindow="810" windowWidth="22380" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="TMAM" sheetId="7" r:id="rId1"/>
+    <sheet name="public" sheetId="10" r:id="rId1"/>
     <sheet name="Collateral" sheetId="2" r:id="rId2"/>
     <sheet name="For tool owners" sheetId="6" r:id="rId3"/>
     <sheet name="Revision History" sheetId="8" r:id="rId4"/>
     <sheet name="Copyright" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TMAM!$A$3:$Q$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$3:$R$86</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -32,50 +32,7 @@
     <author>ayasin</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Yasin, Ahmad:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Info</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> - stats in Keiko tools</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
+    <comment ref="O3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +59,31 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0">
+    <comment ref="P3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Yasin, Ahmad:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CountDomain applies for most recent models. See Comment for other CountDomain in prior models (if any; should be rare)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R3" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -124,13 +105,13 @@
           <t xml:space="preserve">This column indicates threshold or conditions once met; the metric value should be investigated. In such case it is said the metric is "highlighted". 
 For example: "&gt; 0.05 &amp; P"
 means the current metric ratio should be greater than 0.05 AND the Parent threshold has been highlighted.
-VTune applies a global condition of "&gt; 0.05 of clockticks" for a hotspot to be highlighted (in addition) that is omitted here.
+VTune applies a global condition of "&gt; 0.05 of Clockticks" for a hotspot to be highlighted (in addition) that is omitted here.
 Additionally, some microarchitectural issues are covered by multiple nodes not necessary located under the same tree branch. Those tightly-coupled nodes should be highlighted together. To assist tools with that a unique identified like "; $Issue1" is appended to the Threshold column.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,14 +140,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="438">
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>Core</t>
-  </si>
-  <si>
     <t>Server</t>
   </si>
   <si>
@@ -224,9 +202,6 @@
     <t>IDQ_UOPS_NOT_DELIVERED.CORE / SLOTS</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.LATENCY_GE_8_PS : N/A</t>
-  </si>
-  <si>
     <t>Slots</t>
   </si>
   <si>
@@ -242,9 +217,6 @@
     <t>#Pipeline_Width * #Frontend_Latency_Cycles / SLOTS</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.LATENCY_GE_16_PS;FRONTEND_RETIRED.LATENCY_GE_32_PS : RS_EVENTS.EMPTY_END</t>
-  </si>
-  <si>
     <t>&gt; 0.15 &amp; P</t>
   </si>
   <si>
@@ -260,9 +232,6 @@
     <t>ICACHE.IFETCH_STALL / CLKS - ITLB_Misses</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.L2_MISS_PS;FRONTEND_RETIRED.L1I_MISS_PS : N/A</t>
-  </si>
-  <si>
     <t>Clocks</t>
   </si>
   <si>
@@ -278,42 +247,27 @@
     <t>#ITLB_Miss_Cycles / CLKS</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.STLB_MISS_PS;FRONTEND_RETIRED.ITLB_MISS_PS : ITLB_MISSES.WALK_COMPLETED</t>
-  </si>
-  <si>
     <t>Branch_Resteers</t>
   </si>
   <si>
-    <t>INT_MISC.CLEAR_RESTEER_CYCLES / CLKS</t>
-  </si>
-  <si>
     <t>#Avg_RS_Empty_Period_Clears * ( BR_MISP_RETIRED.ALL_BRANCHES_PS + MACHINE_CLEARS.COUNT + BACLEARS.ANY ) / CLKS</t>
   </si>
   <si>
     <t>BR_MISP_RETIRED.ALL_BRANCHES_PS</t>
   </si>
   <si>
-    <t>&gt; 0.05 &amp; P; $issueB; ~overlap</t>
-  </si>
-  <si>
     <t>DSB_Switches</t>
   </si>
   <si>
     <t>DSB2MITE_SWITCHES.PENALTY_CYCLES / CLKS</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.DSB_MISS_PS : N/A</t>
-  </si>
-  <si>
     <t>Frontend_Bandwidth</t>
   </si>
   <si>
     <t>Frontend_Bound - Frontend_Latency</t>
   </si>
   <si>
-    <t>SKL ? FRONTEND_RETIRED.LATENCY_GE_2_BUBBLES_GE_1_PS : N/A</t>
-  </si>
-  <si>
     <t>&gt; 0.1 &amp; (IPC &gt; 2.0) &amp; P</t>
   </si>
   <si>
@@ -326,9 +280,6 @@
     <t>( UOPS_ISSUED.ANY - UOPS_RETIRED.RETIRE_SLOTS + #Pipeline_Width * #Recovery_Cycles ) / SLOTS</t>
   </si>
   <si>
-    <t>&gt; 0.1; $issueB</t>
-  </si>
-  <si>
     <t>Branch_Mispredicts</t>
   </si>
   <si>
@@ -374,9 +325,6 @@
     <t>( #STALLS_MEM_ANY - CYCLE_ACTIVITY.STALLS_L1D_PENDING ) / CLKS</t>
   </si>
   <si>
-    <t>SKL ? MEM_LOAD_RETIRED.L1_HIT_PS;MEM_LOAD_RETIRED.FB_HIT_PS : MEM_LOAD_UOPS_RETIRED.L1_HIT_PS;MEM_LOAD_UOPS_RETIRED.HIT_LFB_PS</t>
-  </si>
-  <si>
     <t>DTLB_Load</t>
   </si>
   <si>
@@ -389,9 +337,6 @@
     <t>( #Mem_STLB_Hit_Cost * DTLB_LOAD_MISSES.STLB_HIT + DTLB_LOAD_MISSES.WALK_DURATION ) / CLKS</t>
   </si>
   <si>
-    <t>SKL ? MEM_INST_RETIRED.STLB_MISS_LOADS_PS : MEM_UOPS_RETIRED.STLB_MISS_LOADS_PS</t>
-  </si>
-  <si>
     <t>L2_Bound</t>
   </si>
   <si>
@@ -401,12 +346,6 @@
     <t>( CYCLE_ACTIVITY.STALLS_L1D_PENDING - CYCLE_ACTIVITY.STALLS_L2_PENDING ) / CLKS</t>
   </si>
   <si>
-    <t>SKL ? MEM_LOAD_RETIRED.L2_HIT_PS : MEM_LOAD_UOPS_RETIRED.L2_HIT_PS</t>
-  </si>
-  <si>
-    <t>&gt; 0.03 &amp; P</t>
-  </si>
-  <si>
     <t>L3_Bound</t>
   </si>
   <si>
@@ -425,9 +364,6 @@
     <t>MEM_Bound</t>
   </si>
   <si>
-    <t>CYCLE_ACTIVITY.STALLS_L3_MISS / CLKS</t>
-  </si>
-  <si>
     <t>(1 - #Mem_L3_Hit_Fraction) * CYCLE_ACTIVITY.STALLS_L2_MISS / CLKS</t>
   </si>
   <si>
@@ -437,30 +373,12 @@
     <t>MEM_Bandwidth</t>
   </si>
   <si>
-    <t>#ORO_L3M_Demand_DRD_C6 / CLKS</t>
-  </si>
-  <si>
-    <t>#ORO_Demand_DRD_C6 / CLKS</t>
-  </si>
-  <si>
     <t>MEM_Latency</t>
   </si>
   <si>
-    <t>( #ORO_L3M_Demand_DRD_C1 - #ORO_L3M_Demand_DRD_C6 ) / CLKS</t>
-  </si>
-  <si>
-    <t>( #ORO_Demand_DRD_C1 - #ORO_Demand_DRD_C6 ) / CLKS</t>
-  </si>
-  <si>
-    <t>Stores_Bound</t>
-  </si>
-  <si>
     <t>EXE_ACTIVITY.BOUND_ON_STORES / CLKS</t>
   </si>
   <si>
-    <t>SKL ? MEM_INST_RETIRED.ALL_STORES_PS : MEM_UOPS_RETIRED.ALL_STORES_PS</t>
-  </si>
-  <si>
     <t>BE/Core</t>
   </si>
   <si>
@@ -482,12 +400,6 @@
     <t>10 * ARITH.DIVIDER_UOPS / CORE_CLKS</t>
   </si>
   <si>
-    <t>SKL ? ARITH.DIVIDER_ACTIVE : HSW/HSX ? ARITH.DIVIDER_UOPS : ARITH.FPU_DIV_ACTIVE</t>
-  </si>
-  <si>
-    <t>CoreClocks</t>
-  </si>
-  <si>
     <t>Ports_Utilization</t>
   </si>
   <si>
@@ -662,20 +574,6 @@
     <t>UOPS_DISPATCHED.THREAD / #Execute_Cycles</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Instruction-Level-Parallelism </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(average number of uops executed when there is at least 1 uop executed)</t>
-    </r>
-  </si>
-  <si>
     <t>GFLOPs</t>
   </si>
   <si>
@@ -829,33 +727,9 @@
     <t>min( CPU_CLK_UNHALTED.THREAD , CYCLE_ACTIVITY.CYCLES_NO_DISPATCH )</t>
   </si>
   <si>
-    <t>#ORO_Demand_DRD_C1</t>
-  </si>
-  <si>
-    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.CYCLES_WITH_DEMAND_DATA_RD )</t>
-  </si>
-  <si>
-    <t>#ORO_Demand_DRD_C6</t>
-  </si>
-  <si>
-    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.DEMAND_DATA_RD_GE_6 )</t>
-  </si>
-  <si>
-    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.DEMAND_DATA_RD:c6 )</t>
-  </si>
-  <si>
-    <t>#ORO_L3M_Demand_DRD_C1</t>
-  </si>
-  <si>
     <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.CYCLES_WITH_L3_MISS_DEMAND_DATA_RD )</t>
   </si>
   <si>
-    <t>#ORO_L3M_Demand_DRD_C6</t>
-  </si>
-  <si>
-    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.L3_MISS_DEMAND_DATA_RD_GE_6 )</t>
-  </si>
-  <si>
     <t>#Few_Uops_Executed_Threshold</t>
   </si>
   <si>
@@ -955,9 +829,6 @@
     <t>#MS_Switches_Cost</t>
   </si>
   <si>
-    <t>SKL ? MEM_LOAD_RETIRED.L3_HIT_PS : IVB/IVT/SNB/JKT ? MEM_LOAD_UOPS_RETIRED.LLC_HIT_PS : MEM_LOAD_UOPS_RETIRED.L3_HIT_PS</t>
-  </si>
-  <si>
     <t>( RS_EVENTS.EMPTY_CYCLES - #ITLB_Miss_Cycles ) / RS_EVENTS.EMPTY_END</t>
   </si>
   <si>
@@ -1078,15 +949,9 @@
     <t>This metric estimates how often the CPU was stalled due to loads accesses to L3 cache or contended with a sibling Core.  Avoiding cache misses (i.e. L2 misses/L3 hits) can improve the latency and increase performance.</t>
   </si>
   <si>
-    <t>SKL ? MEM_LOAD_RETIRED.L3_MISS_PS : IVB/IVT/JKT ? MEM_LOAD_UOPS_RETIRED.LLC_MISS_PS : SNB ? MEM_LOAD_UOPS_MISC_RETIRED.LLC_MISS_PS : MEM_LOAD_UOPS_RETIRED.L3_MISS_PS</t>
-  </si>
-  <si>
     <t>This metric estimates how often the CPU was stalled on accesses to external memory (DRAM) by loads. Better caching can improve the latency and increase performance.</t>
   </si>
   <si>
-    <t>This metric estimates cycles fraction where the performance was likely hurt due to approaching bandwidth limits of external main (DRAM).  This metric does not aggregate requests from other threads/cores/sockets (see Uncore counters for that).</t>
-  </si>
-  <si>
     <t>This metric estimates cycles fraction where the performance was likely hurt due to latency from external memory (DRAM).  This metric does not aggregate requests from other threads/cores/sockets (see Uncore counters for that).</t>
   </si>
   <si>
@@ -1121,27 +986,6 @@
   </si>
   <si>
     <t>MEM_BW_GBs</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Average external </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Memory Bandwidth Use for reads and writes [GB / sec]</t>
-    </r>
   </si>
   <si>
     <t>Per-thread actual clocks when the thread is active</t>
@@ -1257,9 +1101,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">(&gt; 0.07 &amp; P) | DTLB_Load; </t>
-  </si>
-  <si>
     <t>RESOURCE_STALLS.SB / CLKS</t>
   </si>
   <si>
@@ -1290,9 +1131,6 @@
     <t>#FLOP_Count / #OneBillion / #DurationTimeInSeconds</t>
   </si>
   <si>
-    <t>CPU_CLK_UNHALTED.REF_TSC:SUP / CPU_CLK_UNHALTED.REF_TSC</t>
-  </si>
-  <si>
     <t>64 * ( UNC_M_CAS_COUNT.RD + UNC_M_CAS_COUNT.WR ) / #OneMillion / #DurationTimeInSeconds / 1000</t>
   </si>
   <si>
@@ -1330,9 +1168,6 @@
   </si>
   <si>
     <t>( #STALLS_TOTAL + UOPS_DISPATCHED.THREAD:c1 - #Few_Uops_Executed_Threshold - #Frontend_RS_Empty_Cycles + RESOURCE_STALLS.SB )</t>
-  </si>
-  <si>
-    <t>Avg_run_time if Avg_run_time &gt; 0 else ( DurationTimeInMilliSeconds / 1000)</t>
   </si>
   <si>
     <t>#SMT_on</t>
@@ -1643,9 +1478,6 @@
     <t>1-800-548-4725, or go to: http://www.intel.com/design/literature.htm</t>
   </si>
   <si>
-    <t>Copyright � 2015 Intel Corporation. All rights reserved.</t>
-  </si>
-  <si>
     <r>
       <t>·</t>
     </r>
@@ -1669,15 +1501,410 @@
       <t>Added Revision History and Copyright sheets</t>
     </r>
   </si>
+  <si>
+    <t>Copyright � 2016 Intel Corporation. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Also called "Optimization Guide"</t>
+  </si>
+  <si>
+    <t>Intel Confidential</t>
+  </si>
+  <si>
+    <t>BDX</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.LATENCY_GE_8_PS : N/A</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.LATENCY_GE_16_PS;FRONTEND_RETIRED.LATENCY_GE_32_PS : RS_EVENTS.EMPTY_END</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.L2_MISS_PS;FRONTEND_RETIRED.L1I_MISS_PS : N/A</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.STLB_MISS_PS;FRONTEND_RETIRED.ITLB_MISS_PS : ITLB_MISSES.WALK_COMPLETED</t>
+  </si>
+  <si>
+    <t>( INT_MISC.CLEAR_RESTEER_CYCLES + 10* BACLEARS.ANY ) / CLKS</t>
+  </si>
+  <si>
+    <t>&gt; 0.05 &amp; P; $issueBad; ~overlap</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.DSB_MISS_PS : N/A</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? FRONTEND_RETIRED.LATENCY_GE_2_BUBBLES_GE_1_PS : N/A</t>
+  </si>
+  <si>
+    <t>&gt; 0.1; $issueBad</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_LOAD_RETIRED.L1_HIT_PS;MEM_LOAD_RETIRED.FB_HIT_PS : MEM_LOAD_UOPS_RETIRED.L1_HIT_PS;MEM_LOAD_UOPS_RETIRED.HIT_LFB_PS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(&gt; 0.1 &amp; P) | DTLB_Load; </t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_INST_RETIRED.STLB_MISS_LOADS_PS : MEM_UOPS_RETIRED.STLB_MISS_LOADS_PS</t>
+  </si>
+  <si>
+    <t>&gt; 0.1</t>
+  </si>
+  <si>
+    <t>FB_Full</t>
+  </si>
+  <si>
+    <t>Load_Miss_Real_Latency * L1D_PEND_MISS.FB_FULL:c1 / CLKS</t>
+  </si>
+  <si>
+    <t>Load_Miss_Real_Latency * L1D_PEND_MISS.REQUEST_FB_FULL:c1 / CLKS</t>
+  </si>
+  <si>
+    <t>This metric does a *rough estimation* of how often L1D Fill Buffer unavailability limited additional L1D miss memory access requests to proceed. The higher the metric value, the deeper the memory hierarchy level the misses are satisfied from (metric values &gt;1 are valid). Often it hints on approaching bandwidth limits (to L2 cache, L3 cache or external memory).</t>
+  </si>
+  <si>
+    <t>&gt; 0.3; $issueBW; $issueSL</t>
+  </si>
+  <si>
+    <t>(1 if FB_Full &lt; 1.5 else #LOAD_L2_HIT / ( #LOAD_L2_HIT + L1D_PEND_MISS.FB_FULL:c1)) * #L2_Bound_Fraction</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_LOAD_RETIRED.L2_HIT_PS : MEM_LOAD_UOPS_RETIRED.L2_HIT_PS</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_LOAD_RETIRED.L3_HIT_PS : IVB/IVT/SNB/JKT ? MEM_LOAD_UOPS_RETIRED.LLC_HIT_PS : MEM_LOAD_UOPS_RETIRED.L3_HIT_PS</t>
+  </si>
+  <si>
+    <t>CYCLE_ACTIVITY.STALLS_L3_MISS / CLKS + #L2_Bound_Fraction - L2_Bound</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_LOAD_RETIRED.L3_MISS_PS : IVB/IVT/JKT ? MEM_LOAD_UOPS_RETIRED.LLC_MISS_PS : SNB ? MEM_LOAD_UOPS_MISC_RETIRED.LLC_MISS_PS : MEM_LOAD_UOPS_RETIRED.L3_MISS_PS</t>
+  </si>
+  <si>
+    <t>#ORO_DRD_BW_Cycles / CLKS</t>
+  </si>
+  <si>
+    <t>This metric estimates cycles fraction where the core's performance was likely hurt due to approaching bandwidth limits of external memory (DRAM).  The underlying heuristic assumes that a similar off-core traffic is generated by all IA cores. This metric does not aggregate non-data-read requests by this thread, requests from other IA threads/cores/sockets, or other non-IA devices like GPU; hence the maximum external memory bandwidth limits may or may not be approached when this metric is flagged (see Uncore counters for that).</t>
+  </si>
+  <si>
+    <t>&gt; 0.1 &amp; P; $issueBW</t>
+  </si>
+  <si>
+    <t>#ORO_DRD_Any_Cycles / CLKS - MEM_Bandwidth</t>
+  </si>
+  <si>
+    <t>Store_Bound</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_INST_RETIRED.ALL_STORES_PS : MEM_UOPS_RETIRED.ALL_STORES_PS</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? ARITH.DIVIDER_ACTIVE : HSW/HSX ? ARITH.DIVIDER_UOPS : ARITH.FPU_DIV_ACTIVE</t>
+  </si>
+  <si>
+    <t>&gt; 1.15</t>
+  </si>
+  <si>
+    <t>Instruction-Level-Parallelism (average number of uops executed when there is at least 1 uop executed)</t>
+  </si>
+  <si>
+    <t>Info.Memory</t>
+  </si>
+  <si>
+    <t>Load_Miss_Real_Latency</t>
+  </si>
+  <si>
+    <t>L1D_PEND_MISS.PENDING / ( MEM_LOAD_RETIRED.L1_MISS_PS + MEM_LOAD_RETIRED.FB_HIT_PS )</t>
+  </si>
+  <si>
+    <t>L1D_PEND_MISS.PENDING / ( MEM_LOAD_UOPS_RETIRED.L1_MISS + MEM_LOAD_UOPS_RETIRED.HIT_LFB_PS )</t>
+  </si>
+  <si>
+    <t>Metric/1000</t>
+  </si>
+  <si>
+    <t>Actual Average Latency for L1 data-cache miss demand loads</t>
+  </si>
+  <si>
+    <t>CoreMetric/1</t>
+  </si>
+  <si>
+    <t>CPU_CLK_UNHALTED.REF_TSC:sup / CPU_CLK_UNHALTED.REF_TSC</t>
+  </si>
+  <si>
+    <t>Average external Memory Bandwidth Use for reads and writes [GB / sec]</t>
+  </si>
+  <si>
+    <t>; $issueBW</t>
+  </si>
+  <si>
+    <t>( &gt; 1.1 | &lt; 0.9 )</t>
+  </si>
+  <si>
+    <t>#L2_Bound_Fraction</t>
+  </si>
+  <si>
+    <t>#ORO_DRD_Any_Cycles</t>
+  </si>
+  <si>
+    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.CYCLES_WITH_DATA_RD )</t>
+  </si>
+  <si>
+    <t>#ORO_DRD_BW_Cycles</t>
+  </si>
+  <si>
+    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.ALL_DATA_RD:c4 )</t>
+  </si>
+  <si>
+    <t>min( CPU_CLK_UNHALTED.THREAD , OFFCORE_REQUESTS_OUTSTANDING.ALL_DATA_RD:c6 )</t>
+  </si>
+  <si>
+    <t>#ORO_L3M_Load_Any_Cycles</t>
+  </si>
+  <si>
+    <t>Key fixes</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed MEM_Bandwidth/Latency to account for L1/L2 prefetches instead of just demands [all] and Tuned MEM_Bandwidth [BDW onward]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Known</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>issues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BDW-DE references BDW client UNC_ARB_* events.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No support for L4 cache yet [HSW, BDW, SKL]</t>
+    </r>
+  </si>
+  <si>
+    <t>BDX Model + fixes for Memory metrics</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Metric Descriptions updates</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed Branch_Resteers to include BAClears [SKL ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed MEM_Bound (and L2_Bound) to account for late prefetches to memory [SKL ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Threshold set for multiple nodes including UPI, MUX</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New models: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BDX, BDW-DE</t>
+    </r>
+  </si>
+  <si>
+    <t>#LOAD_L1_MISS_CLT</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_RETIRED.L2_HIT_PS + MEM_LOAD_RETIRED.L3_HIT_PS + MEM_LOAD_L3_HIT_RETIRED.XSNP_HIT_PS + MEM_LOAD_L3_HIT_RETIRED.XSNP_HITM_PS + MEM_LOAD_L3_HIT_RETIRED.XSNP_MISS_PS</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_UOPS_RETIRED.L2_HIT_PS + MEM_LOAD_UOPS_RETIRED.L3_HIT_PS + MEM_LOAD_UOPS_L3_HIT_RETIRED.XSNP_HIT_PS + MEM_LOAD_UOPS_L3_HIT_RETIRED.XSNP_HITM_PS + MEM_LOAD_UOPS_L3_HIT_RETIRED.XSNP_MISS_PS</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_UOPS_RETIRED.L2_HIT_PS + MEM_LOAD_UOPS_RETIRED.LLC_HIT_PS + MEM_LOAD_UOPS_LLC_HIT_RETIRED.XSNP_HIT_PS + MEM_LOAD_UOPS_LLC_HIT_RETIRED.XSNP_HITM_PS + MEM_LOAD_UOPS_LLC_HIT_RETIRED.XSNP_MISS_PS</t>
+  </si>
+  <si>
+    <t>#LOAD_L1_MISS_NET</t>
+  </si>
+  <si>
+    <t>#LOAD_L1_MISS_CLT + MEM_LOAD_UOPS_L3_MISS_RETIRED.LOCAL_DRAM_PS + MEM_LOAD_UOPS_L3_MISS_RETIRED.REMOTE_DRAM_PS + MEM_LOAD_UOPS_L3_MISS_RETIRED.REMOTE_HITM_PS + MEM_LOAD_UOPS_L3_MISS_RETIRED.REMOTE_FWD_PS</t>
+  </si>
+  <si>
+    <t>#LOAD_L1_MISS_CLT + MEM_LOAD_UOPS_LLC_MISS_RETIRED.LOCAL_DRAM_PS + MEM_LOAD_UOPS_LLC_MISS_RETIRED.REMOTE_DRAM_PS + MEM_LOAD_UOPS_LLC_MISS_RETIRED.REMOTE_HITM_PS + MEM_LOAD_UOPS_LLC_MISS_RETIRED.REMOTE_FWD_PS</t>
+  </si>
+  <si>
+    <t>#LOAD_L2_HIT</t>
+  </si>
+  <si>
+    <t>MEM_LOAD_RETIRED.L2_HIT_PS * ( 1 + MEM_LOAD_RETIRED.FB_HIT_PS / #LOAD_L1_MISS_NET )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1843,8 +2070,31 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Intel Clear"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="3"/>
+      <name val="Intel Clear"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1911,8 +2161,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1957,12 +2231,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2003,18 +2286,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2034,25 +2307,9 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2066,15 +2323,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
     </xf>
@@ -2093,6 +2343,74 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="25" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2117,13 +2435,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>532144</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>132644</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2455,2390 +2773,2626 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" style="37" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="31" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" style="31" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="48.5703125" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="5.7109375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="5.7109375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="5.7109375" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="5.7109375" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="6.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="36.28515625" customWidth="1"/>
+    <col min="18" max="18" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="43" t="s">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="44">
-        <v>3.02</v>
-      </c>
-      <c r="D1" s="54"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45" t="s">
+      <c r="C1" s="58">
+        <v>3.1</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="61"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="G2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="46"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="42"/>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="52"/>
-    </row>
-    <row r="3" spans="1:17" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="G3" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="J3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="K3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="L3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="M3" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="N3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="9" t="s">
+    </row>
+    <row r="4" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C4" s="11"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="10" t="s">
+      <c r="O4" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="P4" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="Q4" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14" t="s">
+      <c r="O5" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="P5" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q5" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="14"/>
       <c r="D6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="30"/>
+      <c r="L6" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="14" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="P6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="14" t="s">
+      <c r="Q6" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="34"/>
-      <c r="M6" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="E7" s="25"/>
       <c r="F7" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="10" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="30"/>
       <c r="N7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="O7" s="10" t="s">
+        <v>371</v>
+      </c>
       <c r="P7" s="14" t="s">
-        <v>288</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="30"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>289</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+      <c r="R8" s="43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>38</v>
+      </c>
+      <c r="E9" s="25"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="G9" s="30"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="30"/>
       <c r="N9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>290</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="36" t="s">
-        <v>254</v>
-      </c>
-      <c r="E10" s="12"/>
+      <c r="D10" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10" s="25"/>
       <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>34</v>
+      <c r="G10" s="30"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>224</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>291</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="12"/>
+      <c r="C11" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="25"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="10" t="s">
-        <v>49</v>
-      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="P11" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P12" s="10" t="s">
-        <v>293</v>
+        <v>44</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="14" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="14" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
-      <c r="H13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="14" t="s">
-        <v>57</v>
-      </c>
+      <c r="E13" s="25"/>
+      <c r="G13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="M13" s="30"/>
       <c r="N13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>52</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="12"/>
+        <v>48</v>
+      </c>
+      <c r="E14" s="25"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="14" t="s">
-        <v>295</v>
+      <c r="G14" s="30"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P14" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="E15" s="12"/>
+        <v>51</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" s="10" t="s">
-        <v>296</v>
+      <c r="G15" s="30"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="25"/>
       <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>297</v>
+      <c r="G16" s="30"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="69" t="s">
+        <v>20</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="E17" s="25"/>
       <c r="F17" s="14"/>
-      <c r="G17" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="M17" s="30"/>
       <c r="N17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="O17" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="10" t="s">
-        <v>298</v>
+        <v>100</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="10" t="s">
-        <v>299</v>
+        <v>62</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="30"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="R18" s="39" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="72" t="s">
+        <v>381</v>
+      </c>
       <c r="F19" s="14"/>
-      <c r="G19" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="G19" s="30"/>
+      <c r="H19" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I19" s="30"/>
+      <c r="J19" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="K19" s="30"/>
+      <c r="L19" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="M19" s="30"/>
+      <c r="P19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>384</v>
+      </c>
+      <c r="R19" s="39" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="10" t="s">
-        <v>85</v>
-      </c>
+      <c r="D20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="30"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M20" s="30"/>
       <c r="N20" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="O20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>301</v>
+        <v>100</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+      <c r="R20" s="43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="12"/>
+      <c r="D21" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="25"/>
       <c r="F21" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="N21" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="O21" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P21" s="10" t="s">
-        <v>303</v>
+        <v>69</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21" s="30"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="10" t="s">
-        <v>93</v>
+      <c r="D22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="30"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>304</v>
+        <v>390</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="O23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q23" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="E23" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="R23" s="39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="14"/>
+      <c r="E24" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="R24" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="P26" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="D27" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I27" s="30"/>
+      <c r="J27" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="P27" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="D28" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="30"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P30" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q30" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="R30" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="14" t="s">
+    </row>
+    <row r="31" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="N24" s="10" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="O24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P24" s="10" t="s">
+      <c r="I31" s="31"/>
+      <c r="J31" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="K31" s="30"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="O31" s="20"/>
+      <c r="P31" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q31" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="R31" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K32" s="30"/>
+      <c r="L32" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="M32" s="30"/>
+      <c r="N32" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32" s="20"/>
+      <c r="P32" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K33" s="30"/>
+      <c r="L33" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="30"/>
+      <c r="N33" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="O33" s="20"/>
+      <c r="P33" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="R33" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K34" s="30"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="P34" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="R34" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P35" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q35" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="R35" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E36" s="25"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="30"/>
+      <c r="P36" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="76"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="44"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="44"/>
+      <c r="N37" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q37" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="25"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="P38" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="R38" s="39" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="25"/>
+      <c r="F39" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="K39" s="30"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="P39" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q39" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="R39" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="25"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="P40" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="25"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="P41" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q41" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="P42" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="P43" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q43" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E44" s="76"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="P44" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="25"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" s="30"/>
+      <c r="J45" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45" s="30"/>
+      <c r="L45" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="M45" s="30"/>
+      <c r="N45" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="P45" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="P46" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="78"/>
+      <c r="F47" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="G47" s="44"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="44"/>
+      <c r="L47" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="M47" s="44"/>
+      <c r="N47" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q47" s="24" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="Q24" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="B48" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" s="76"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="44"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="44"/>
+      <c r="N48" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I49" s="30"/>
+      <c r="J49" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49" s="30"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="P49" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P50" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q50" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="P51" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q51" s="10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="30"/>
+      <c r="N52" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="P52" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="R52" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="P53" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q53" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="R53" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="P54" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="R54" s="10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="30"/>
+      <c r="N55" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="P55" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="R55" s="39" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="14"/>
+      <c r="P56" s="14" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="I57" s="30"/>
+      <c r="J57" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="O25" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P25" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q25" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="D26" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="G26" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="O26" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="P26" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="D27" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="O28" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P28" s="41" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q29" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="N30" s="20"/>
-      <c r="O30" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="P30" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q30" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="34"/>
-      <c r="I31" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J31" s="34"/>
-      <c r="K31" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="20"/>
-      <c r="O31" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="P31" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J32" s="34"/>
-      <c r="K32" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="N32" s="20"/>
-      <c r="O32" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="P32" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q32" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="34"/>
-      <c r="M33" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="O33" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="P33" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q33" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="N34" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O34" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="P34" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q34" s="10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="34"/>
-      <c r="O35" s="14" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" s="55"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="P36" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="O37" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="P37" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="12"/>
-      <c r="F38" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="J38" s="34"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="O38" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="P38" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q38" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="34"/>
-      <c r="M39" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="O39" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="P39" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="O40" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E41" s="12"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="34"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="34"/>
-      <c r="M41" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="O41" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P42" s="10" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="55"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="P43" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="H44" s="34"/>
-      <c r="I44" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="L44" s="34"/>
-      <c r="M44" s="10" t="s">
+      <c r="K57" s="30"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="P57" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="O44" s="14" t="s">
+      <c r="Q57" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="P44" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="E45" s="55"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="28" t="s">
-        <v>173</v>
-      </c>
-      <c r="O45" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="P45" s="28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B46" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="H46" s="34"/>
-      <c r="I46" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="34"/>
-      <c r="M46" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="P46" s="28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B47" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="O47" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="P47" s="10" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="P48" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="O49" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="P49" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q49" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="M50" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="O50" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="P50" s="28" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="34"/>
-      <c r="M51" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="O51" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P51" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="B52" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="O52" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="P52" s="10" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="14"/>
-      <c r="O53" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="P53" s="28"/>
-    </row>
-    <row r="54" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="H54" s="34"/>
-      <c r="I54" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J54" s="34"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="O54" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P54" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="O55" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P55" s="28"/>
-    </row>
-    <row r="56" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="H56" s="34"/>
-      <c r="I56" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="J56" s="34"/>
-      <c r="K56" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="L56" s="34"/>
-      <c r="M56" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="O56" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P56" s="28"/>
-    </row>
-    <row r="57" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="H57" s="34"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="34"/>
-      <c r="M57" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="O57" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P57" s="28"/>
-    </row>
-    <row r="58" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>349</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
-      <c r="F58" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="O58" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P58" s="28"/>
-    </row>
-    <row r="59" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="14"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="P58" s="69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H59" s="34"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="O59" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P59" s="28"/>
-    </row>
-    <row r="60" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B60" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H60" s="34"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="L60" s="34"/>
-      <c r="M60" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="O60" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P60" s="28"/>
-    </row>
-    <row r="61" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E59" s="77"/>
+      <c r="F59" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G59" s="30"/>
+      <c r="H59" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="I59" s="30"/>
+      <c r="J59" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" s="30"/>
+      <c r="L59" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M59" s="30"/>
+      <c r="N59" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="P59" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="D60" s="43"/>
+      <c r="E60" s="80"/>
+      <c r="F60" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" s="81"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="81"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="81"/>
+      <c r="N60" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="P60" s="43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H61" s="34"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="34"/>
-      <c r="K61" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="L61" s="34"/>
-      <c r="M61" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="O61" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P61" s="28"/>
-    </row>
-    <row r="62" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="30"/>
+      <c r="H61" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I61" s="30"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="14"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="P61" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q61" s="24"/>
+    </row>
+    <row r="62" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>219</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C62" s="10"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="34"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="O62" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P62" s="28"/>
-    </row>
-    <row r="63" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="14"/>
+      <c r="M62" s="30"/>
+      <c r="N62" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="O62" s="10"/>
+      <c r="P62" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="10"/>
+    </row>
+    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>221</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="C63" s="10"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="F63" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G63" s="14"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="34"/>
-      <c r="M63" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="O63" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P63" s="28"/>
-    </row>
-    <row r="64" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="14"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I63" s="30"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="O63" s="10"/>
+      <c r="P63" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="10"/>
+    </row>
+    <row r="64" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="G64" s="14"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="34"/>
-      <c r="M64" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O64" s="14" t="s">
+      <c r="F64" s="14"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="30"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="P64" s="28"/>
-    </row>
-    <row r="65" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M64" s="30"/>
+      <c r="N64" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="P64" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q64" s="24"/>
+    </row>
+    <row r="65" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
-      <c r="F65" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G65" s="14"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="34"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="O65" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P65" s="28"/>
-    </row>
-    <row r="66" spans="1:16" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="14"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="I65" s="30"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="M65" s="30"/>
+      <c r="N65" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="P65" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q65" s="24"/>
+    </row>
+    <row r="66" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="14"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="43" t="s">
+        <v>413</v>
+      </c>
+      <c r="P66" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>414</v>
+      </c>
+      <c r="D67" s="14"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="43" t="s">
+        <v>415</v>
+      </c>
+      <c r="I67" s="30"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="14"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="43" t="s">
+        <v>416</v>
+      </c>
+      <c r="P67" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>417</v>
+      </c>
+      <c r="D68" s="14"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="30"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="14"/>
+      <c r="M68" s="30"/>
+      <c r="N68" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="P68" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="43" t="s">
+        <v>430</v>
+      </c>
+      <c r="G69" s="81"/>
+      <c r="H69" s="43"/>
+      <c r="I69" s="81"/>
+      <c r="J69" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="K69" s="81"/>
+      <c r="L69" s="43" t="s">
+        <v>432</v>
+      </c>
+      <c r="M69" s="81"/>
+      <c r="N69" s="43"/>
+      <c r="P69" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="81" t="s">
+        <v>434</v>
+      </c>
+      <c r="J70" s="43"/>
+      <c r="K70" s="81" t="s">
+        <v>435</v>
+      </c>
+      <c r="L70" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="M70" s="81"/>
+      <c r="N70" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="O70" s="39"/>
+      <c r="P70" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="86" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="43" t="s">
+        <v>437</v>
+      </c>
+      <c r="G71" s="81"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="81"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="81"/>
+      <c r="L71" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="M71" s="81"/>
+      <c r="N71" s="43"/>
+      <c r="O71" s="39"/>
+      <c r="P71" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E66" s="12"/>
-      <c r="F66" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="G66" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="H66" s="34"/>
-      <c r="I66" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="J66" s="35"/>
-      <c r="K66" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="L66" s="35"/>
-      <c r="M66" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="O66" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P66" s="28"/>
-    </row>
-    <row r="67" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B67" s="10" t="s">
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="I72" s="30"/>
+      <c r="J72" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="K72" s="31"/>
+      <c r="L72" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="M72" s="31"/>
+      <c r="N72" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="O72" s="10"/>
+      <c r="P72" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+    </row>
+    <row r="73" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="E73" s="25"/>
+      <c r="F73" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I73" s="30"/>
+      <c r="J73" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="K73" s="30"/>
+      <c r="L73" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="M73" s="30"/>
+      <c r="N73" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="P73" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="30"/>
+      <c r="H74" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I74" s="30"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="14"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="P74" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G75" s="30"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="K75" s="30"/>
+      <c r="L75" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="M75" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="N75" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="P75" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="P76" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G77" s="30"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="K77" s="30"/>
+      <c r="L77" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="M77" s="30"/>
+      <c r="N77" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="E67" s="12"/>
-      <c r="F67" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="H67" s="34"/>
-      <c r="I67" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="J67" s="34"/>
-      <c r="K67" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="L67" s="34"/>
-      <c r="M67" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="O67" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E68" s="12"/>
-      <c r="F68" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="G68" s="14" t="s">
-        <v>233</v>
-      </c>
-      <c r="H68" s="34"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="14"/>
-      <c r="L68" s="34"/>
-      <c r="M68" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="O68" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G69" s="14"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="J69" s="34"/>
-      <c r="K69" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="L69" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="M69" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="O69" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="O70" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G71" s="14"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="J71" s="34"/>
-      <c r="K71" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="L71" s="34"/>
-      <c r="M71" s="14" t="s">
-        <v>262</v>
-      </c>
-      <c r="O71" s="14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="O72" s="14" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="E73" s="12"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="O73" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="P73" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="34"/>
-      <c r="M74" s="29">
+      <c r="P77" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="25"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="14"/>
+      <c r="M78" s="30"/>
+      <c r="N78" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="P78" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E79" s="25"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="14"/>
+      <c r="M79" s="30"/>
+      <c r="N79" s="25">
         <v>4</v>
       </c>
-      <c r="O74" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G75" s="14"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="34"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="34"/>
-      <c r="M75" s="29">
+      <c r="P79" s="69" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G80" s="30"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="30"/>
+      <c r="N80" s="25">
         <v>7</v>
       </c>
-      <c r="O75" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="E76" s="12"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="34"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="34"/>
-      <c r="M76" s="29">
-        <v>7</v>
-      </c>
-      <c r="O76" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="E77" s="12"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="14">
-        <v>2</v>
-      </c>
-      <c r="J77" s="34"/>
-      <c r="K77" s="14"/>
-      <c r="L77" s="34"/>
-      <c r="M77" s="29">
-        <v>3</v>
-      </c>
-      <c r="O77" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E78" s="12"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="34"/>
-      <c r="K78" s="14"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="30">
-        <v>1000000</v>
-      </c>
-      <c r="O78" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="14"/>
-      <c r="L79" s="34"/>
-      <c r="M79" s="30">
-        <v>1000000000</v>
-      </c>
-      <c r="O79" s="14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="14"/>
-      <c r="L80" s="34"/>
-      <c r="M80" s="29" t="s">
-        <v>359</v>
-      </c>
-      <c r="O80" s="14" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>360</v>
+        <v>219</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="34"/>
-      <c r="O81" s="14" t="s">
-        <v>361</v>
-      </c>
+      <c r="G81" s="30"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="25">
+        <v>7</v>
+      </c>
+      <c r="P81" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E82" s="25"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="14">
+        <v>2</v>
+      </c>
+      <c r="K82" s="30"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="25">
+        <v>3</v>
+      </c>
+      <c r="P82" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="14"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="26">
+        <v>1000000</v>
+      </c>
+      <c r="P83" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="25"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="26">
+        <v>1000000000</v>
+      </c>
+      <c r="P84" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="E85" s="25"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="25"/>
+      <c r="P85" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E86" s="25"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="30"/>
+      <c r="P86" s="14" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:Q81">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="."/>
-        <filter val="BAD"/>
-        <filter val="BE"/>
-        <filter val="BE/Core"/>
-        <filter val="BE/Mem"/>
-        <filter val="FE"/>
-        <filter val="Info.Core"/>
-        <filter val="Info.System"/>
-        <filter val="Info.Thread"/>
-        <filter val="RET"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A3:R86"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -4847,9 +5401,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4859,41 +5415,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
-        <v>259</v>
+      <c r="A1" s="54" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>282</v>
+      <c r="C4" s="55" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>376</v>
+      <c r="B6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="Intel® Architecture Optimization Reference Manual, Top-Down Analysis Method chapter"/>
-    <hyperlink ref="C6" r:id="rId2" display="http://intelstudios.edgesuite.net/idf/2015/sf/aep/ARCS002/ARCS002.html"/>
-    <hyperlink ref="D6" r:id="rId3" display="http://www.intel.com/idfsessionsSF"/>
+    <hyperlink ref="C7" r:id="rId2" display="http://intelstudios.edgesuite.net/idf/2015/sf/aep/ARCS002/ARCS002.html"/>
+    <hyperlink ref="D7" r:id="rId3" display="http://www.intel.com/idfsessionsSF"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
@@ -4915,144 +5473,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="48" t="s">
-        <v>275</v>
+      <c r="A10" s="38" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="48" t="s">
-        <v>277</v>
+      <c r="C12" s="38" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="48" t="s">
-        <v>326</v>
+      <c r="C13" s="38" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="48" t="s">
-        <v>325</v>
+      <c r="C14" s="38" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="49" t="s">
-        <v>331</v>
+      <c r="C16" s="39" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="49" t="s">
-        <v>332</v>
+      <c r="C18" s="39" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="48" t="s">
-        <v>333</v>
+      <c r="C19" s="38" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="48" t="s">
-        <v>329</v>
+      <c r="C20" s="38" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="47" t="s">
-        <v>322</v>
+      <c r="B24" s="37" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="47" t="s">
-        <v>328</v>
+      <c r="C25" s="37" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="47" t="s">
-        <v>327</v>
+      <c r="C26" s="37" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5063,92 +5621,160 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="124.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="61">
+      <c r="A1" s="48">
         <v>3.01</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>369</v>
+      <c r="B1" s="49" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="63">
+      <c r="A2" s="50">
         <v>3.02</v>
       </c>
-      <c r="B2" s="64" t="s">
-        <v>368</v>
+      <c r="B2" s="51" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60" t="s">
-        <v>367</v>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="58" t="s">
-        <v>371</v>
+      <c r="A4" s="46"/>
+      <c r="B4" s="45" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="58" t="s">
-        <v>372</v>
+      <c r="A5" s="46"/>
+      <c r="B5" s="45" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="58" t="s">
-        <v>373</v>
+      <c r="A6" s="46"/>
+      <c r="B6" s="45" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60" t="s">
-        <v>366</v>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" s="58" t="s">
-        <v>374</v>
+      <c r="A8" s="46"/>
+      <c r="B8" s="45" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="58" t="s">
-        <v>365</v>
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="58" t="s">
-        <v>364</v>
+      <c r="A10" s="46"/>
+      <c r="B10" s="45" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="60" t="s">
-        <v>403</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>3.1</v>
+      </c>
+      <c r="B13" s="84" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="82"/>
+      <c r="B15" s="83" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="82"/>
+      <c r="B16" s="85" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="82"/>
+      <c r="B17" s="85" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="85" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
+      <c r="B19" s="85" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="82"/>
+      <c r="B20" s="85" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="82"/>
+      <c r="B22" s="85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="82"/>
+      <c r="B23" s="85" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -5162,170 +5788,170 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>377</v>
+      <c r="A1" s="53" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>378</v>
+      <c r="A2" s="53" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
-        <v>379</v>
+      <c r="A3" s="53" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
-        <v>380</v>
+      <c r="A4" s="53" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
+      <c r="A5" s="52"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
-        <v>379</v>
+      <c r="A6" s="53" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
-        <v>381</v>
+      <c r="A7" s="53" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="66" t="s">
-        <v>379</v>
+      <c r="A8" s="53" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66" t="s">
-        <v>382</v>
+      <c r="A9" s="53" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
-        <v>383</v>
+      <c r="A10" s="53" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="66" t="s">
-        <v>384</v>
+      <c r="A11" s="53" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="66" t="s">
-        <v>385</v>
+      <c r="A12" s="53" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
-        <v>386</v>
+      <c r="A13" s="53" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+      <c r="A14" s="52"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="66" t="s">
-        <v>387</v>
+      <c r="A15" s="53" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="66" t="s">
-        <v>388</v>
+      <c r="A16" s="53" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="66" t="s">
-        <v>389</v>
+      <c r="A17" s="53" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="66" t="s">
-        <v>390</v>
+      <c r="A18" s="53" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66" t="s">
-        <v>391</v>
+      <c r="A19" s="53" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
-        <v>392</v>
+      <c r="A20" s="53" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+      <c r="A21" s="52"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>393</v>
+      <c r="A22" s="53" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
-        <v>394</v>
+      <c r="A23" s="53" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="66" t="s">
-        <v>395</v>
+      <c r="A24" s="53" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66" t="s">
-        <v>396</v>
+      <c r="A25" s="53" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="65"/>
+      <c r="A26" s="52"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="66" t="s">
-        <v>397</v>
+      <c r="A27" s="53" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="66" t="s">
-        <v>398</v>
+      <c r="A28" s="53" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
+      <c r="A29" s="52"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
-        <v>399</v>
+      <c r="A30" s="53" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
+      <c r="A31" s="52"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="66" t="s">
-        <v>400</v>
+      <c r="A32" s="53" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66" t="s">
-        <v>401</v>
+      <c r="A33" s="53" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+      <c r="A34" s="52"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="66" t="s">
-        <v>402</v>
+      <c r="A35" s="53" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/TMAM_Metrics.xlsx
+++ b/TMAM_Metrics.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TMAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgundu\Documents\external_repository\pme_external_repository-perfmon-events\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2280" yWindow="810" windowWidth="22380" windowHeight="12885"/>
   </bookViews>
   <sheets>
-    <sheet name="public" sheetId="10" r:id="rId1"/>
+    <sheet name="public" sheetId="11" r:id="rId1"/>
     <sheet name="Collateral" sheetId="2" r:id="rId2"/>
     <sheet name="For tool owners" sheetId="6" r:id="rId3"/>
     <sheet name="Revision History" sheetId="8" r:id="rId4"/>
     <sheet name="Copyright" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$3:$R$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">public!$A$3:$R$88</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C30" authorId="0" shapeId="0">
+    <comment ref="C31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="455">
   <si>
     <t>Version</t>
   </si>
@@ -223,9 +223,6 @@
     <t>ICache_Misses</t>
   </si>
   <si>
-    <t>ICACHE_16B.IFDATA_STALL / CLKS</t>
-  </si>
-  <si>
     <t>ICACHE.IFDATA_STALL  / CLKS</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t>ITLB_Misses</t>
   </si>
   <si>
-    <t>ICACHE_64B.IFTAG_STALL / CLKS</t>
-  </si>
-  <si>
     <t>#ITLB_Miss_Cycles / CLKS</t>
   </si>
   <si>
@@ -331,9 +325,6 @@
     <t>( #Mem_STLB_Hit_Cost * DTLB_LOAD_MISSES.STLB_HIT + DTLB_LOAD_MISSES.WALK_ACTIVE ) / CLKS</t>
   </si>
   <si>
-    <t>( #Mem_STLB_Hit_Cost * DTLB_LOAD_MISSES.STLB_HIT + DTLB_LOAD_MISSES.WALK_DURATION:c1 ) / CLKS</t>
-  </si>
-  <si>
     <t>( #Mem_STLB_Hit_Cost * DTLB_LOAD_MISSES.STLB_HIT + DTLB_LOAD_MISSES.WALK_DURATION ) / CLKS</t>
   </si>
   <si>
@@ -622,9 +613,6 @@
     <t>Fraction of cycles spent in Kernel mode</t>
   </si>
   <si>
-    <t>&lt; 0.1</t>
-  </si>
-  <si>
     <t>MUX</t>
   </si>
   <si>
@@ -695,12 +683,6 @@
   </si>
   <si>
     <t>#ITLB_Miss_Cycles</t>
-  </si>
-  <si>
-    <t>( #Mem_STLB_Hit_Cost * ITLB_MISSES.STLB_HIT + ITLB_MISSES.WALK_DURATION:c1 )</t>
-  </si>
-  <si>
-    <t>( #Mem_STLB_Hit_Cost * ITLB_MISSES.STLB_HIT + ITLB_MISSES.WALK_DURATION )</t>
   </si>
   <si>
     <t>#Frontend_Latency_Cycles</t>
@@ -1895,14 +1877,153 @@
   <si>
     <t>MEM_LOAD_RETIRED.L2_HIT_PS * ( 1 + MEM_LOAD_RETIRED.FB_HIT_PS / #LOAD_L1_MISS_NET )</t>
   </si>
+  <si>
+    <t>(ICACHE_16B.IFDATA_STALL +2* ICACHE_16B.IFDATA_STALL:c1:e1) / CLKS</t>
+  </si>
+  <si>
+    <t>( #Mem_STLB_Hit_Cost * DTLB_LOAD_MISSES.STLB_HIT + DTLB_LOAD_MISSES.WALK_DURATION:c1 + 7* DTLB_LOAD_MISSES.WALK_COMPLETED ) / CLKS</t>
+  </si>
+  <si>
+    <t>DTLB_Store</t>
+  </si>
+  <si>
+    <t>( #Mem_STLB_Hit_Cost * DTLB_STORE_MISSES.STLB_HIT + DTLB_STORE_MISSES.WALK_ACTIVE ) / CORE_CLKS</t>
+  </si>
+  <si>
+    <t>( #Mem_STLB_Hit_Cost * DTLB_STORE_MISSES.STLB_HIT + DTLB_STORE_MISSES.WALK_DURATION:c1 + 7* DTLB_STORE_MISSES.WALK_COMPLETED ) / CLKS</t>
+  </si>
+  <si>
+    <t>( #Mem_STLB_Hit_Cost * DTLB_STORE_MISSES.STLB_HIT + DTLB_STORE_MISSES.WALK_DURATION ) / CLKS</t>
+  </si>
+  <si>
+    <t>SKL/SKX/CNL ? MEM_INST_RETIRED.STLB_MISS_STORES_PS : MEM_UOPS_RETIRED.STLB_MISS_STORES_PS</t>
+  </si>
+  <si>
+    <t>This metric represents cycles fraction spent handling first-level data TLB store misses.  As with ordinary data caching, focus on improving data locality and reducing working-set size to reduce DTLB overhead.  Additionally, consider using profile-guided optimization (PGO) to collocate frequently-used data on the same page.  Try using larger page sizes for large amounts of frequently-used data.</t>
+  </si>
+  <si>
+    <t>Page_Walks_Utilization</t>
+  </si>
+  <si>
+    <t>( ITLB_MISSES.WALK_PENDING + DTLB_LOAD_MISSES.WALK_PENDING + DTLB_STORE_MISSES.WALK_PENDING + EPT.WALK_PENDING ) / ( 2 * CORE_CLKS )</t>
+  </si>
+  <si>
+    <t>( ITLB_MISSES.WALK_DURATION + DTLB_LOAD_MISSES.WALK_DURATION + DTLB_STORE_MISSES.WALK_DURATION + 7*(DTLB_STORE_MISSES.WALK_COMPLETED+DTLB_LOAD_MISSES.WALK_COMPLETED+ITLB_MISSES.WALK_COMPLETED) ) / (2*CORE_CLKS)</t>
+  </si>
+  <si>
+    <t>( ITLB_MISSES.WALK_DURATION:c1 + DTLB_LOAD_MISSES.WALK_DURATION:c1 + DTLB_STORE_MISSES.WALK_DURATION:c1 + 7*(DTLB_STORE_MISSES.WALK_COMPLETED+DTLB_LOAD_MISSES.WALK_COMPLETED+ITLB_MISSES.WALK_COMPLETED)) / CORE_CLKS</t>
+  </si>
+  <si>
+    <t>( ITLB_MISSES.WALK_DURATION + DTLB_LOAD_MISSES.WALK_DURATION + DTLB_STORE_MISSES.WALK_DURATION ) / CORE_CLKS</t>
+  </si>
+  <si>
+    <t>Utilization of the core's Page Walker(s) serving STLB misses triggered by instruction/Load/Store accesses</t>
+  </si>
+  <si>
+    <t>&gt; 0.5</t>
+  </si>
+  <si>
+    <t>( 9 * ITLB_MISSES.STLB_HIT + ITLB_MISSES.WALK_PENDING:c1 )</t>
+  </si>
+  <si>
+    <t>( 9 * ITLB_MISSES.STLB_HIT + ITLB_MISSES.WALK_DURATION:c1 + 7* ITLB_MISSES.WALK_COMPLETED )</t>
+  </si>
+  <si>
+    <t>( 9 * ITLB_MISSES.STLB_HIT + ITLB_MISSES.WALK_DURATION )</t>
+  </si>
+  <si>
+    <t>TLB related changes</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>STLB latencies need more tuning [all]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">New Metrics: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DTLB_Store, Page_Walks_Utilization</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Fixed ITLB_Misses [all] and ICache_Misses [SKL]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Adjusted ITLB_Misses, DTLB_Load to enable SKX vs. BDX comparisons [BD*]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -2094,7 +2215,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2185,6 +2306,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -2245,7 +2372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2348,9 +2475,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2397,10 +2521,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="25" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2410,7 +2530,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="25" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2418,6 +2549,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2773,67 +2909,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R87"/>
+  <dimension ref="A1:R89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="66" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="65" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="5.7109375" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="5.7109375" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="4.5703125" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="8.5703125" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="3.85546875" style="33" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="5.7109375" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="3.85546875" style="27" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="5.7109375" style="4" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="5.7109375" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="3.85546875" style="27" customWidth="1" outlineLevel="1"/>
     <col min="14" max="14" width="6.140625" customWidth="1"/>
     <col min="15" max="15" width="7.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="36.28515625" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="4" customWidth="1"/>
+    <col min="17" max="17" width="48.28515625" customWidth="1"/>
+    <col min="18" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58">
-        <v>3.1</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>366</v>
-      </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="61"/>
+      <c r="C1" s="85">
+        <v>3.14</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -2859,7 +2995,7 @@
       <c r="Q2" s="42"/>
     </row>
     <row r="3" spans="1:18" s="5" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -2874,11 +3010,11 @@
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="67" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>8</v>
@@ -2896,10 +3032,10 @@
         <v>12</v>
       </c>
       <c r="M3" s="28" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>13</v>
@@ -2935,13 +3071,13 @@
         <v>19</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="P4" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="P4" s="68" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="R4" s="10" t="s">
         <v>21</v>
@@ -2970,13 +3106,13 @@
         <v>24</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="P5" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="P5" s="68" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="R5" s="10" t="s">
         <v>25</v>
@@ -2992,34 +3128,34 @@
         <v>26</v>
       </c>
       <c r="E6" s="25"/>
-      <c r="F6" s="14" t="s">
-        <v>27</v>
+      <c r="F6" s="39" t="s">
+        <v>432</v>
       </c>
       <c r="G6" s="30"/>
       <c r="H6" s="14"/>
       <c r="I6" s="30"/>
       <c r="J6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="30"/>
       <c r="N6" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="P6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="R6" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="Q6" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3029,12 +3165,10 @@
       <c r="B7" s="15"/>
       <c r="C7" s="14"/>
       <c r="D7" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="25"/>
-      <c r="F7" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="30"/>
       <c r="H7" s="14"/>
       <c r="I7" s="30"/>
@@ -3043,19 +3177,19 @@
       <c r="L7" s="14"/>
       <c r="M7" s="30"/>
       <c r="N7" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="P7" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="R7" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3065,11 +3199,11 @@
       <c r="B8" s="15"/>
       <c r="C8" s="14"/>
       <c r="D8" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="25"/>
-      <c r="F8" s="43" t="s">
-        <v>372</v>
+      <c r="F8" s="14" t="s">
+        <v>366</v>
       </c>
       <c r="G8" s="30"/>
       <c r="H8" s="14"/>
@@ -3079,19 +3213,19 @@
       <c r="L8" s="14"/>
       <c r="M8" s="30"/>
       <c r="N8" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="R8" s="43" t="s">
-        <v>373</v>
+        <v>250</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3101,7 +3235,7 @@
       <c r="B9" s="15"/>
       <c r="C9" s="14"/>
       <c r="D9" s="18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="14"/>
@@ -3113,19 +3247,19 @@
       <c r="L9" s="14"/>
       <c r="M9" s="30"/>
       <c r="N9" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="P9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="R9" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="Q9" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
@@ -3135,7 +3269,7 @@
       <c r="B10" s="15"/>
       <c r="C10" s="14"/>
       <c r="D10" s="32" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="E10" s="25"/>
       <c r="F10" s="14"/>
@@ -3147,28 +3281,28 @@
       <c r="L10" s="14"/>
       <c r="M10" s="30"/>
       <c r="N10" s="14" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>43</v>
+      <c r="A11" s="43" t="s">
+        <v>17</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="70" t="s">
-        <v>40</v>
+      <c r="C11" s="69" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="25"/>
       <c r="F11" s="14"/>
@@ -3180,27 +3314,27 @@
       <c r="L11" s="14"/>
       <c r="M11" s="30"/>
       <c r="N11" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="P11" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="P11" s="68" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="14" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="19"/>
       <c r="E12" s="25"/>
@@ -3213,25 +3347,25 @@
       <c r="L12" s="14"/>
       <c r="M12" s="31"/>
       <c r="N12" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="P12" s="69" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="68" t="s">
         <v>20</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="R12" s="39" t="s">
-        <v>376</v>
+        <v>254</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="14" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="25"/>
@@ -3240,28 +3374,28 @@
       <c r="K13" s="30"/>
       <c r="M13" s="30"/>
       <c r="N13" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P13" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="68" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="25"/>
       <c r="F14" s="14"/>
@@ -3273,29 +3407,29 @@
       <c r="L14" s="14"/>
       <c r="M14" s="30"/>
       <c r="N14" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="68" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="14" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="71"/>
+        <v>49</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="70"/>
       <c r="E15" s="25"/>
       <c r="F15" s="14"/>
       <c r="G15" s="30"/>
@@ -3306,13 +3440,13 @@
       <c r="L15" s="14"/>
       <c r="M15" s="30"/>
       <c r="N15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P15" s="69" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="68" t="s">
         <v>20</v>
       </c>
       <c r="Q15" s="10" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="R15" s="10" t="s">
         <v>21</v>
@@ -3320,11 +3454,11 @@
     </row>
     <row r="16" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E16" s="25"/>
       <c r="F16" s="14"/>
@@ -3336,72 +3470,72 @@
       <c r="L16" s="14"/>
       <c r="M16" s="30"/>
       <c r="N16" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" s="68" t="s">
         <v>20</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="R16" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="14"/>
       <c r="D17" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="25"/>
       <c r="F17" s="14"/>
       <c r="G17" s="30"/>
       <c r="H17" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I17" s="30"/>
       <c r="J17" s="14"/>
       <c r="K17" s="30"/>
       <c r="L17" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M17" s="30"/>
       <c r="N17" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="P17" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="R17" s="39" t="s">
-        <v>378</v>
+        <v>259</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G18" s="30"/>
-      <c r="H18" s="14" t="s">
-        <v>63</v>
+      <c r="H18" s="39" t="s">
+        <v>433</v>
       </c>
       <c r="I18" s="30"/>
       <c r="J18" s="14"/>
@@ -3409,111 +3543,111 @@
       <c r="L18" s="14"/>
       <c r="M18" s="30"/>
       <c r="N18" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O18" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="R18" s="39" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="72" t="s">
-        <v>381</v>
+      <c r="E19" s="71" t="s">
+        <v>375</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="30"/>
       <c r="H19" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="I19" s="30"/>
       <c r="J19" s="14" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M19" s="30"/>
       <c r="P19" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="39" t="s">
-        <v>384</v>
-      </c>
-      <c r="R19" s="39" t="s">
-        <v>385</v>
+        <v>29</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20" s="25"/>
-      <c r="F20" s="43" t="s">
-        <v>386</v>
+      <c r="F20" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="14" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I20" s="30"/>
       <c r="J20" s="14"/>
       <c r="K20" s="30"/>
       <c r="L20" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M20" s="30"/>
       <c r="N20" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O20" s="10" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q20" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="R20" s="43" t="s">
-        <v>72</v>
+        <v>261</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="14"/>
       <c r="D21" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="14"/>
@@ -3521,37 +3655,37 @@
       <c r="L21" s="14"/>
       <c r="M21" s="30"/>
       <c r="N21" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O21" s="10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="P21" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="R21" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="14"/>
       <c r="D22" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E22" s="25"/>
-      <c r="F22" s="43" t="s">
-        <v>389</v>
+      <c r="F22" s="14" t="s">
+        <v>383</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I22" s="30"/>
       <c r="J22" s="14"/>
@@ -3559,30 +3693,30 @@
       <c r="L22" s="14"/>
       <c r="M22" s="30"/>
       <c r="N22" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O22" s="14" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P22" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" s="15"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
       <c r="E23" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="30"/>
@@ -3592,28 +3726,28 @@
       <c r="K23" s="30"/>
       <c r="L23" s="14"/>
       <c r="M23" s="30"/>
-      <c r="N23" s="39" t="s">
-        <v>391</v>
+      <c r="N23" s="10" t="s">
+        <v>385</v>
       </c>
       <c r="P23" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="R23" s="39" t="s">
-        <v>393</v>
+        <v>29</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="24" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="73" t="s">
-        <v>77</v>
+      <c r="E24" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="30"/>
@@ -3623,31 +3757,31 @@
       <c r="K24" s="30"/>
       <c r="L24" s="14"/>
       <c r="M24" s="30"/>
-      <c r="N24" s="39" t="s">
-        <v>394</v>
+      <c r="N24" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="P24" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="74" t="s">
-        <v>395</v>
+      <c r="D25" s="73" t="s">
+        <v>389</v>
       </c>
       <c r="E25" s="25"/>
       <c r="F25" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G25" s="30"/>
       <c r="H25" s="14"/>
@@ -3657,159 +3791,169 @@
       <c r="L25" s="14"/>
       <c r="M25" s="30"/>
       <c r="N25" s="10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="O25" s="10" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="P25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="83" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="M26" s="30"/>
+      <c r="N26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="R26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q25" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P26" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B27" s="15"/>
-      <c r="D27" s="16" t="s">
-        <v>82</v>
+      <c r="C27" s="17" t="s">
+        <v>77</v>
       </c>
       <c r="E27" s="25"/>
-      <c r="F27" s="14" t="s">
-        <v>83</v>
-      </c>
+      <c r="F27" s="14"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="14" t="s">
-        <v>84</v>
-      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="30"/>
-      <c r="J27" s="14" t="s">
-        <v>85</v>
-      </c>
+      <c r="J27" s="14"/>
       <c r="K27" s="30"/>
       <c r="L27" s="14"/>
       <c r="M27" s="30"/>
-      <c r="N27" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="P27" s="43" t="s">
-        <v>30</v>
+      <c r="N27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P27" s="68" t="s">
+        <v>20</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="R27" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="D28" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="D28" s="17" t="s">
-        <v>86</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="14" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G28" s="30"/>
       <c r="H28" s="14" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I28" s="30"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="14" t="s">
+        <v>82</v>
+      </c>
       <c r="K28" s="30"/>
       <c r="L28" s="14"/>
       <c r="M28" s="30"/>
       <c r="N28" s="10" t="s">
-        <v>89</v>
+        <v>81</v>
+      </c>
+      <c r="O28" s="14" t="s">
+        <v>391</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>91</v>
+        <v>76</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="D29" s="17" t="s">
+        <v>83</v>
       </c>
       <c r="E29" s="25"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="I29" s="30"/>
       <c r="J29" s="14"/>
       <c r="K29" s="30"/>
       <c r="L29" s="14"/>
       <c r="M29" s="30"/>
       <c r="N29" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="P29" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q29" s="36" t="s">
-        <v>323</v>
+        <v>86</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="R29" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>88</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="14"/>
@@ -3821,193 +3965,193 @@
       <c r="L30" s="14"/>
       <c r="M30" s="30"/>
       <c r="N30" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="O30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P30" s="69" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="Q30" s="14" t="s">
-        <v>275</v>
+      <c r="Q30" s="36" t="s">
+        <v>317</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>98</v>
+        <v>87</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="E31" s="25"/>
-      <c r="F31" s="23"/>
+      <c r="F31" s="14"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="31"/>
-      <c r="J31" s="23" t="s">
-        <v>100</v>
-      </c>
+      <c r="H31" s="14"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="30"/>
       <c r="L31" s="14"/>
       <c r="M31" s="30"/>
-      <c r="N31" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="O31" s="20"/>
-      <c r="P31" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q31" s="10" t="s">
-        <v>276</v>
+      <c r="N31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="P31" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q31" s="14" t="s">
+        <v>269</v>
       </c>
       <c r="R31" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="23"/>
       <c r="G32" s="30"/>
-      <c r="H32" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="30"/>
-      <c r="J32" s="14" t="s">
-        <v>100</v>
+      <c r="H32" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" s="31"/>
+      <c r="J32" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="K32" s="30"/>
-      <c r="L32" s="23" t="s">
-        <v>104</v>
-      </c>
+      <c r="L32" s="14"/>
       <c r="M32" s="30"/>
       <c r="N32" s="20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="O32" s="20"/>
       <c r="P32" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q32" s="10" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>106</v>
+        <v>87</v>
+      </c>
+      <c r="E33" s="72" t="s">
+        <v>99</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="30"/>
       <c r="H33" s="14" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K33" s="30"/>
       <c r="L33" s="23" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="M33" s="30"/>
       <c r="N33" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O33" s="20"/>
       <c r="P33" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="R33" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E34" s="25"/>
+        <v>87</v>
+      </c>
+      <c r="E34" s="74" t="s">
+        <v>103</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="30"/>
       <c r="H34" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K34" s="30"/>
-      <c r="L34" s="14"/>
+      <c r="L34" s="23" t="s">
+        <v>105</v>
+      </c>
       <c r="M34" s="30"/>
-      <c r="N34" s="10" t="s">
-        <v>111</v>
-      </c>
+      <c r="N34" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="O34" s="20"/>
       <c r="P34" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>113</v>
+        <v>87</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="14"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="14" t="s">
+        <v>108</v>
+      </c>
       <c r="I35" s="30"/>
-      <c r="J35" s="14"/>
+      <c r="J35" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="K35" s="30"/>
       <c r="L35" s="14"/>
       <c r="M35" s="30"/>
       <c r="N35" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="O35" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="P35" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="14" t="s">
-        <v>280</v>
+        <v>108</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" s="10" t="s">
+        <v>273</v>
       </c>
       <c r="R35" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>299</v>
+        <v>87</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="E36" s="25"/>
       <c r="F36" s="14"/>
@@ -4018,130 +4162,133 @@
       <c r="K36" s="30"/>
       <c r="L36" s="14"/>
       <c r="M36" s="30"/>
-      <c r="P36" s="14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B37" s="24" t="s">
+      <c r="N36" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="P36" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="R36" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="30"/>
+      <c r="P37" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="75"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="P38" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q38" s="24" t="s">
         <v>117</v>
-      </c>
-      <c r="E37" s="76"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="44"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="44"/>
-      <c r="N37" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="P37" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q37" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="P38" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q38" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="R38" s="39" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E39" s="25"/>
-      <c r="F39" s="14" t="s">
-        <v>133</v>
-      </c>
+      <c r="F39" s="14"/>
       <c r="G39" s="30"/>
       <c r="H39" s="14"/>
       <c r="I39" s="30"/>
-      <c r="J39" s="14" t="s">
-        <v>302</v>
-      </c>
+      <c r="J39" s="14"/>
       <c r="K39" s="30"/>
       <c r="L39" s="14"/>
       <c r="M39" s="30"/>
       <c r="N39" s="10" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="P39" s="14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="Q39" s="10" t="s">
-        <v>303</v>
+        <v>128</v>
       </c>
       <c r="R39" s="10" t="s">
-        <v>136</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E40" s="25"/>
-      <c r="F40" s="14"/>
+      <c r="F40" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="G40" s="30"/>
       <c r="H40" s="14"/>
       <c r="I40" s="30"/>
-      <c r="J40" s="14"/>
+      <c r="J40" s="14" t="s">
+        <v>296</v>
+      </c>
       <c r="K40" s="30"/>
       <c r="L40" s="14"/>
       <c r="M40" s="30"/>
       <c r="N40" s="10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="P40" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>139</v>
+        <v>297</v>
+      </c>
+      <c r="R40" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E41" s="25"/>
       <c r="F41" s="14"/>
@@ -4153,21 +4300,21 @@
       <c r="L41" s="14"/>
       <c r="M41" s="30"/>
       <c r="N41" s="10" t="s">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="P41" s="14" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q41" s="10" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>164</v>
+        <v>118</v>
       </c>
       <c r="E42" s="25"/>
       <c r="F42" s="14"/>
@@ -4179,21 +4326,21 @@
       <c r="L42" s="14"/>
       <c r="M42" s="30"/>
       <c r="N42" s="10" t="s">
-        <v>165</v>
+        <v>298</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>282</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
-        <v>301</v>
+      <c r="A43" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>214</v>
+        <v>160</v>
       </c>
       <c r="E43" s="25"/>
       <c r="F43" s="14"/>
@@ -4205,245 +4352,256 @@
       <c r="L43" s="14"/>
       <c r="M43" s="30"/>
       <c r="N43" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="P43" s="69" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="P43" s="14" t="s">
+        <v>162</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B44" s="24" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="25"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="30"/>
+      <c r="N44" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="P44" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q44" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="75"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="44"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="P45" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q45" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="E44" s="76"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="P44" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q44" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="I45" s="30"/>
-      <c r="J45" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="M45" s="30"/>
-      <c r="N45" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="P45" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q45" s="10" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="77"/>
+        <v>137</v>
+      </c>
+      <c r="E46" s="25"/>
       <c r="F46" s="14"/>
       <c r="G46" s="30"/>
-      <c r="H46" s="14"/>
+      <c r="H46" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="I46" s="30"/>
-      <c r="J46" s="14"/>
+      <c r="J46" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="K46" s="30"/>
-      <c r="L46" s="14"/>
+      <c r="L46" s="23" t="s">
+        <v>138</v>
+      </c>
       <c r="M46" s="30"/>
-      <c r="N46" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="P46" s="69" t="s">
-        <v>166</v>
+      <c r="N46" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P46" s="14" t="s">
+        <v>150</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="E47" s="84"/>
+      <c r="F47" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="G47" s="78" t="s">
+        <v>442</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>443</v>
+      </c>
+      <c r="I47" s="78"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="43" t="s">
+        <v>444</v>
+      </c>
+      <c r="M47" s="78"/>
+      <c r="N47" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="P47" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="B47" s="24" t="s">
-        <v>401</v>
-      </c>
-      <c r="E47" s="78"/>
-      <c r="F47" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="G47" s="44"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="M47" s="44"/>
-      <c r="N47" s="79" t="s">
-        <v>100</v>
-      </c>
-      <c r="P47" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q47" s="24" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>148</v>
-      </c>
+      <c r="Q47" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="R47" s="39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="14"/>
       <c r="E48" s="76"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="P48" s="15" t="s">
+      <c r="F48" s="14"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="P48" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="E49" s="77"/>
+      <c r="F49" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="G49" s="44"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="M49" s="44"/>
+      <c r="N49" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q49" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" s="75"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="Q48" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="I49" s="30"/>
-      <c r="J49" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K49" s="30"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="P49" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q49" s="10" t="s">
+      <c r="P50" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q50" s="24" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="P50" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q50" s="10" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E51" s="25"/>
+        <v>141</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="76"/>
       <c r="F51" s="14"/>
       <c r="G51" s="30"/>
-      <c r="H51" s="14"/>
+      <c r="H51" s="14" t="s">
+        <v>301</v>
+      </c>
       <c r="I51" s="30"/>
-      <c r="J51" s="14"/>
+      <c r="J51" s="14" t="s">
+        <v>142</v>
+      </c>
       <c r="K51" s="30"/>
       <c r="L51" s="14"/>
       <c r="M51" s="30"/>
-      <c r="N51" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="P51" s="43" t="s">
-        <v>406</v>
+      <c r="N51" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="P51" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="Q51" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="E52" s="25"/>
       <c r="F52" s="14"/>
@@ -4455,24 +4613,21 @@
       <c r="L52" s="14"/>
       <c r="M52" s="30"/>
       <c r="N52" s="10" t="s">
-        <v>407</v>
+        <v>149</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="R52" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>281</v>
+        <v>152</v>
       </c>
       <c r="E53" s="25"/>
       <c r="F53" s="14"/>
@@ -4482,31 +4637,25 @@
       <c r="J53" s="14"/>
       <c r="K53" s="30"/>
       <c r="L53" s="14"/>
-      <c r="M53" s="30" t="s">
-        <v>308</v>
-      </c>
+      <c r="M53" s="30"/>
       <c r="N53" s="10" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="P53" s="14" t="s">
-        <v>146</v>
+        <v>400</v>
       </c>
       <c r="Q53" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="R53" s="39" t="s">
-        <v>409</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="77"/>
+        <v>155</v>
+      </c>
+      <c r="E54" s="25"/>
       <c r="F54" s="14"/>
       <c r="G54" s="30"/>
       <c r="H54" s="14"/>
@@ -4515,28 +4664,27 @@
       <c r="K54" s="30"/>
       <c r="L54" s="14"/>
       <c r="M54" s="30"/>
-      <c r="N54" s="14" t="s">
-        <v>310</v>
+      <c r="N54" s="10" t="s">
+        <v>401</v>
       </c>
       <c r="P54" s="14" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="R54" s="10" t="s">
-        <v>171</v>
+        <v>374</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="77"/>
+        <v>275</v>
+      </c>
+      <c r="E55" s="25"/>
       <c r="F55" s="14"/>
       <c r="G55" s="30"/>
       <c r="H55" s="14"/>
@@ -4544,26 +4692,31 @@
       <c r="J55" s="14"/>
       <c r="K55" s="30"/>
       <c r="L55" s="14"/>
-      <c r="M55" s="30"/>
+      <c r="M55" s="30" t="s">
+        <v>302</v>
+      </c>
       <c r="N55" s="10" t="s">
-        <v>162</v>
+        <v>303</v>
       </c>
       <c r="P55" s="14" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="R55" s="39" t="s">
-        <v>410</v>
+        <v>402</v>
+      </c>
+      <c r="R55" s="10" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="56" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>165</v>
       </c>
       <c r="D56" s="14"/>
-      <c r="E56" s="77"/>
+      <c r="E56" s="76"/>
       <c r="F56" s="14"/>
       <c r="G56" s="30"/>
       <c r="H56" s="14"/>
@@ -4572,51 +4725,55 @@
       <c r="K56" s="30"/>
       <c r="L56" s="14"/>
       <c r="M56" s="30"/>
-      <c r="N56" s="14"/>
+      <c r="N56" s="14" t="s">
+        <v>304</v>
+      </c>
       <c r="P56" s="14" t="s">
-        <v>300</v>
+        <v>162</v>
+      </c>
+      <c r="Q56" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="R56" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>172</v>
+        <v>300</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="D57" s="14"/>
-      <c r="E57" s="77"/>
+      <c r="E57" s="76"/>
       <c r="F57" s="14"/>
       <c r="G57" s="30"/>
-      <c r="H57" s="14" t="s">
-        <v>174</v>
-      </c>
+      <c r="H57" s="14"/>
       <c r="I57" s="30"/>
-      <c r="J57" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="J57" s="14"/>
       <c r="K57" s="30"/>
       <c r="L57" s="14"/>
       <c r="M57" s="30"/>
-      <c r="N57" s="14" t="s">
-        <v>175</v>
+      <c r="N57" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="P57" s="14" t="s">
-        <v>166</v>
+        <v>29</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+      <c r="R57" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B58" s="10" t="s">
-        <v>177</v>
+        <v>293</v>
       </c>
       <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
+      <c r="E58" s="76"/>
       <c r="F58" s="14"/>
       <c r="G58" s="30"/>
       <c r="H58" s="14"/>
@@ -4625,112 +4782,109 @@
       <c r="K58" s="30"/>
       <c r="L58" s="14"/>
       <c r="M58" s="30"/>
-      <c r="N58" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="P58" s="69" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N58" s="14"/>
+      <c r="P58" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D59" s="14"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="14" t="s">
-        <v>180</v>
-      </c>
+      <c r="E59" s="76"/>
+      <c r="F59" s="14"/>
       <c r="G59" s="30"/>
       <c r="H59" s="14" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="I59" s="30"/>
       <c r="J59" s="14" t="s">
-        <v>182</v>
+        <v>97</v>
       </c>
       <c r="K59" s="30"/>
-      <c r="L59" s="23" t="s">
-        <v>181</v>
-      </c>
+      <c r="L59" s="14"/>
       <c r="M59" s="30"/>
       <c r="N59" s="14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="P59" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q59" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B60" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="D60" s="43"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="81"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="81"/>
-      <c r="J60" s="43"/>
-      <c r="K60" s="81"/>
-      <c r="L60" s="43"/>
-      <c r="M60" s="81"/>
-      <c r="N60" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="P60" s="43" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="30"/>
+      <c r="N60" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="P60" s="68" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
+      <c r="E61" s="76"/>
       <c r="F61" s="14" t="s">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="G61" s="30"/>
       <c r="H61" s="14" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I61" s="30"/>
-      <c r="J61" s="14"/>
+      <c r="J61" s="14" t="s">
+        <v>178</v>
+      </c>
       <c r="K61" s="30"/>
-      <c r="L61" s="14"/>
+      <c r="L61" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="M61" s="30"/>
       <c r="N61" s="14" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P61" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q61" s="24"/>
-    </row>
-    <row r="62" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="C62" s="10"/>
+        <v>405</v>
+      </c>
       <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
+      <c r="E62" s="76"/>
       <c r="F62" s="14" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="G62" s="30"/>
       <c r="H62" s="14"/>
@@ -4740,165 +4894,165 @@
       <c r="L62" s="14"/>
       <c r="M62" s="30"/>
       <c r="N62" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="O62" s="10"/>
+        <v>97</v>
+      </c>
       <c r="P62" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="10"/>
-    </row>
-    <row r="63" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C63" s="10"/>
+        <v>168</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>180</v>
+      </c>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I63" s="30"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="14"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="O63" s="10"/>
+      <c r="F63" s="43" t="s">
+        <v>447</v>
+      </c>
+      <c r="G63" s="78"/>
+      <c r="H63" s="43" t="s">
+        <v>448</v>
+      </c>
+      <c r="I63" s="78"/>
+      <c r="J63" s="43" t="s">
+        <v>449</v>
+      </c>
+      <c r="K63" s="78"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="78"/>
+      <c r="N63" s="43" t="s">
+        <v>449</v>
+      </c>
       <c r="P63" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q63" s="24"/>
-      <c r="R63" s="10"/>
-    </row>
-    <row r="64" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:18" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>189</v>
+        <v>305</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
+      <c r="F64" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="G64" s="30"/>
-      <c r="H64" s="14" t="s">
-        <v>100</v>
-      </c>
+      <c r="H64" s="14"/>
       <c r="I64" s="30"/>
       <c r="J64" s="14"/>
       <c r="K64" s="30"/>
-      <c r="L64" s="14" t="s">
-        <v>190</v>
-      </c>
+      <c r="L64" s="14"/>
       <c r="M64" s="30"/>
       <c r="N64" s="14" t="s">
-        <v>191</v>
+        <v>306</v>
       </c>
       <c r="P64" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q64" s="24"/>
     </row>
-    <row r="65" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14"/>
       <c r="G65" s="30"/>
       <c r="H65" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I65" s="30"/>
       <c r="J65" s="14"/>
       <c r="K65" s="30"/>
-      <c r="L65" s="14" t="s">
-        <v>193</v>
-      </c>
+      <c r="L65" s="14"/>
       <c r="M65" s="30"/>
       <c r="N65" s="14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="P65" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q65" s="24"/>
     </row>
-    <row r="66" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B66" s="39" t="s">
-        <v>412</v>
+        <v>168</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="D66" s="14"/>
-      <c r="E66" s="77"/>
+      <c r="E66" s="14"/>
       <c r="F66" s="14"/>
       <c r="G66" s="30"/>
-      <c r="H66" s="14"/>
+      <c r="H66" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="I66" s="30"/>
       <c r="J66" s="14"/>
       <c r="K66" s="30"/>
-      <c r="L66" s="14"/>
+      <c r="L66" s="14" t="s">
+        <v>184</v>
+      </c>
       <c r="M66" s="30"/>
-      <c r="N66" s="43" t="s">
-        <v>413</v>
+      <c r="N66" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="P66" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="Q66" s="24"/>
+    </row>
+    <row r="67" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B67" s="39" t="s">
-        <v>414</v>
+        <v>168</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="D67" s="14"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="43"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="43" t="s">
-        <v>415</v>
+      <c r="H67" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="I67" s="30"/>
       <c r="J67" s="14"/>
       <c r="K67" s="30"/>
-      <c r="L67" s="14"/>
+      <c r="L67" s="14" t="s">
+        <v>187</v>
+      </c>
       <c r="M67" s="30"/>
-      <c r="N67" s="43" t="s">
-        <v>416</v>
+      <c r="N67" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="P67" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="Q67" s="24"/>
+    </row>
+    <row r="68" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B68" s="39" t="s">
-        <v>417</v>
+        <v>168</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="D68" s="14"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="14" t="s">
-        <v>195</v>
-      </c>
+      <c r="E68" s="76"/>
+      <c r="F68" s="14"/>
       <c r="G68" s="30"/>
       <c r="H68" s="14"/>
       <c r="I68" s="30"/>
@@ -4907,289 +5061,280 @@
       <c r="L68" s="14"/>
       <c r="M68" s="30"/>
       <c r="N68" s="14" t="s">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="P68" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="B69" s="43" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D69" s="14"/>
+      <c r="E69" s="76"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I69" s="30"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="P69" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="76"/>
+      <c r="F70" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G70" s="30"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P70" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="G71" s="30"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="K71" s="30"/>
+      <c r="L71" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="M71" s="30"/>
+      <c r="N71" s="14"/>
+      <c r="P71" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="76"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="30" t="s">
+        <v>428</v>
+      </c>
+      <c r="J72" s="14"/>
+      <c r="K72" s="30" t="s">
         <v>429</v>
       </c>
-      <c r="D69" s="14"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="43" t="s">
+      <c r="L72" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="M72" s="30"/>
+      <c r="N72" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="P72" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="G69" s="81"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="81"/>
-      <c r="J69" s="43" t="s">
+      <c r="D73" s="14"/>
+      <c r="E73" s="76"/>
+      <c r="F73" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="K69" s="81"/>
-      <c r="L69" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="M69" s="81"/>
-      <c r="N69" s="43"/>
-      <c r="P69" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="B70" s="39" t="s">
-        <v>433</v>
-      </c>
-      <c r="D70" s="14"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="81" t="s">
-        <v>434</v>
-      </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="81" t="s">
-        <v>435</v>
-      </c>
-      <c r="L70" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="M70" s="81"/>
-      <c r="N70" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="O70" s="39"/>
-      <c r="P70" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="86" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71" s="39" t="s">
-        <v>436</v>
-      </c>
-      <c r="D71" s="14"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="43" t="s">
-        <v>437</v>
-      </c>
-      <c r="G71" s="81"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="M71" s="81"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="39"/>
-      <c r="P71" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="I72" s="30"/>
-      <c r="J72" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="K72" s="31"/>
-      <c r="L72" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="M72" s="31"/>
-      <c r="N72" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="O72" s="10"/>
-      <c r="P72" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-    </row>
-    <row r="73" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="14" t="s">
-        <v>198</v>
-      </c>
       <c r="G73" s="30"/>
-      <c r="H73" s="14" t="s">
-        <v>317</v>
-      </c>
+      <c r="H73" s="14"/>
       <c r="I73" s="30"/>
-      <c r="J73" s="14" t="s">
-        <v>318</v>
-      </c>
+      <c r="J73" s="14"/>
       <c r="K73" s="30"/>
-      <c r="L73" s="23" t="s">
-        <v>319</v>
+      <c r="L73" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="M73" s="30"/>
-      <c r="N73" s="10" t="s">
-        <v>320</v>
-      </c>
+      <c r="N73" s="14"/>
       <c r="P73" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="E74" s="25"/>
-      <c r="F74" s="14" t="s">
-        <v>200</v>
+      <c r="F74" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="G74" s="30"/>
       <c r="H74" s="14" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="I74" s="30"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="14"/>
-      <c r="M74" s="30"/>
+      <c r="J74" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="K74" s="31"/>
+      <c r="L74" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="M74" s="31"/>
       <c r="N74" s="10" t="s">
-        <v>202</v>
+        <v>310</v>
       </c>
       <c r="P74" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
+        <v>168</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E75" s="25"/>
       <c r="F75" s="14" t="s">
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="G75" s="30"/>
-      <c r="H75" s="14"/>
+      <c r="H75" s="14" t="s">
+        <v>311</v>
+      </c>
       <c r="I75" s="30"/>
       <c r="J75" s="14" t="s">
-        <v>205</v>
+        <v>312</v>
       </c>
       <c r="K75" s="30"/>
-      <c r="L75" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="M75" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="N75" s="14" t="s">
-        <v>284</v>
+      <c r="L75" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="M75" s="30"/>
+      <c r="N75" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="P75" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="14"/>
+        <v>168</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="E76" s="25"/>
+      <c r="F76" s="14" t="s">
+        <v>194</v>
+      </c>
       <c r="G76" s="30"/>
-      <c r="H76" s="14"/>
+      <c r="H76" s="14" t="s">
+        <v>195</v>
+      </c>
       <c r="I76" s="30"/>
       <c r="J76" s="14"/>
       <c r="K76" s="30"/>
       <c r="L76" s="14"/>
       <c r="M76" s="30"/>
-      <c r="N76" s="14" t="s">
-        <v>208</v>
+      <c r="N76" s="10" t="s">
+        <v>196</v>
       </c>
       <c r="P76" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G77" s="30"/>
       <c r="H77" s="14"/>
       <c r="I77" s="30"/>
       <c r="J77" s="14" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="K77" s="30"/>
       <c r="L77" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="M77" s="30"/>
+        <v>200</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>200</v>
+      </c>
       <c r="N77" s="14" t="s">
-        <v>229</v>
+        <v>278</v>
       </c>
       <c r="P77" s="14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E78" s="25"/>
+        <v>168</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="76"/>
       <c r="F78" s="14"/>
       <c r="G78" s="30"/>
       <c r="H78" s="14"/>
@@ -5198,47 +5343,53 @@
       <c r="K78" s="30"/>
       <c r="L78" s="14"/>
       <c r="M78" s="30"/>
-      <c r="N78" s="10" t="s">
-        <v>213</v>
+      <c r="N78" s="14" t="s">
+        <v>202</v>
       </c>
       <c r="P78" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="G79" s="30"/>
       <c r="H79" s="14"/>
       <c r="I79" s="30"/>
-      <c r="J79" s="14"/>
+      <c r="J79" s="14" t="s">
+        <v>204</v>
+      </c>
       <c r="K79" s="30"/>
-      <c r="L79" s="14"/>
+      <c r="L79" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="M79" s="30"/>
-      <c r="N79" s="25">
-        <v>4</v>
-      </c>
-      <c r="P79" s="69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N79" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="P79" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="14" t="s">
-        <v>100</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="E80" s="25"/>
+      <c r="F80" s="14"/>
       <c r="G80" s="30"/>
       <c r="H80" s="14"/>
       <c r="I80" s="30"/>
@@ -5246,21 +5397,21 @@
       <c r="K80" s="30"/>
       <c r="L80" s="14"/>
       <c r="M80" s="30"/>
-      <c r="N80" s="25">
-        <v>7</v>
+      <c r="N80" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="P80" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="12"/>
+        <v>210</v>
+      </c>
+      <c r="E81" s="25"/>
       <c r="F81" s="14"/>
       <c r="G81" s="30"/>
       <c r="H81" s="14"/>
@@ -5270,45 +5421,45 @@
       <c r="L81" s="14"/>
       <c r="M81" s="30"/>
       <c r="N81" s="25">
-        <v>7</v>
-      </c>
-      <c r="P81" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="P81" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="14"/>
+        <v>212</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="14" t="s">
+        <v>97</v>
+      </c>
       <c r="G82" s="30"/>
       <c r="H82" s="14"/>
       <c r="I82" s="30"/>
-      <c r="J82" s="14">
-        <v>2</v>
-      </c>
+      <c r="J82" s="14"/>
       <c r="K82" s="30"/>
       <c r="L82" s="14"/>
       <c r="M82" s="30"/>
       <c r="N82" s="25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P82" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="25"/>
+        <v>213</v>
+      </c>
+      <c r="E83" s="12"/>
       <c r="F83" s="14"/>
       <c r="G83" s="30"/>
       <c r="H83" s="14"/>
@@ -5317,42 +5468,44 @@
       <c r="K83" s="30"/>
       <c r="L83" s="14"/>
       <c r="M83" s="30"/>
-      <c r="N83" s="26">
-        <v>1000000</v>
+      <c r="N83" s="25">
+        <v>7</v>
       </c>
       <c r="P83" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E84" s="25"/>
       <c r="F84" s="14"/>
       <c r="G84" s="30"/>
       <c r="H84" s="14"/>
       <c r="I84" s="30"/>
-      <c r="J84" s="14"/>
+      <c r="J84" s="14">
+        <v>2</v>
+      </c>
       <c r="K84" s="30"/>
       <c r="L84" s="14"/>
       <c r="M84" s="30"/>
-      <c r="N84" s="26">
-        <v>1000000000</v>
+      <c r="N84" s="25">
+        <v>3</v>
       </c>
       <c r="P84" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>310</v>
+        <v>214</v>
       </c>
       <c r="E85" s="25"/>
       <c r="F85" s="14"/>
@@ -5363,17 +5516,19 @@
       <c r="K85" s="30"/>
       <c r="L85" s="14"/>
       <c r="M85" s="30"/>
-      <c r="N85" s="25"/>
+      <c r="N85" s="26">
+        <v>1000000</v>
+      </c>
       <c r="P85" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="10" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>321</v>
+        <v>215</v>
       </c>
       <c r="E86" s="25"/>
       <c r="F86" s="14"/>
@@ -5384,17 +5539,81 @@
       <c r="K86" s="30"/>
       <c r="L86" s="14"/>
       <c r="M86" s="30"/>
+      <c r="N86" s="26">
+        <v>1000000000</v>
+      </c>
       <c r="P86" s="14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="E87" s="25"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="14"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="25"/>
+      <c r="P87" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E88" s="25"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="14"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="30"/>
+      <c r="P88" s="14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:R86"/>
+  <autoFilter ref="A3:R88">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="."/>
+        <filter val="BAD"/>
+        <filter val="BE"/>
+        <filter val="BE/Core"/>
+        <filter val="BE/Mem"/>
+        <filter val="FE"/>
+        <filter val="Info.Core"/>
+        <filter val="Info.Memory"/>
+        <filter val="Info.System"/>
+        <filter val="Info.Thread"/>
+        <filter val="RET"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter differentOddEven="1">
+    <oddFooter>&amp;C </oddFooter>
+    <evenFooter>&amp;C </evenFooter>
+  </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5404,7 +5623,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5416,35 +5635,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="55" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -5473,144 +5692,144 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="38" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="38" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="38" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="39" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C18" s="39" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C19" s="38" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" s="38" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="37" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C25" s="37" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5621,10 +5840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B23"/>
+      <selection activeCell="A21" sqref="A21:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,7 +5857,7 @@
         <v>3.01</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -5646,135 +5865,177 @@
         <v>3.02</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="46"/>
       <c r="B3" s="47" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="46"/>
       <c r="B4" s="45" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="46"/>
       <c r="B5" s="45" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="46"/>
       <c r="B6" s="45" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="46"/>
       <c r="B7" s="47" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="46"/>
       <c r="B8" s="45" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="46"/>
       <c r="B9" s="45" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="45" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="46"/>
       <c r="B11" s="45" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="46"/>
       <c r="B12" s="47" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="81">
         <v>3.1</v>
       </c>
-      <c r="B13" s="84" t="s">
-        <v>423</v>
+      <c r="B13" s="81" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="83" t="s">
-        <v>428</v>
+      <c r="A14" s="79"/>
+      <c r="B14" s="80" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="83" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="79"/>
+      <c r="B16" s="82" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="79"/>
+      <c r="B17" s="82" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="79"/>
+      <c r="B18" s="82" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="79"/>
+      <c r="B19" s="82" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
+      <c r="B20" s="82" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="85" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="85" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="85" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="85" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="85" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="83" t="s">
-        <v>420</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="86">
+        <v>3.14</v>
+      </c>
+      <c r="B21" s="86" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="85" t="s">
-        <v>421</v>
+      <c r="A22" s="87"/>
+      <c r="B22" s="80" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="85" t="s">
-        <v>422</v>
+      <c r="A23" s="87"/>
+      <c r="B23" s="80" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="87"/>
+      <c r="B24" s="82" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="87"/>
+      <c r="B25" s="82" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="79"/>
+      <c r="B27" s="80" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="79"/>
+      <c r="B28" s="82" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="79"/>
+      <c r="B29" s="82" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="79"/>
+      <c r="B30" s="82" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -5795,22 +6056,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="53" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -5818,42 +6079,42 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="53" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="53" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="53" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="53" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -5861,32 +6122,32 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="53" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="53" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="53" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="53" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="53" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="53" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -5894,22 +6155,22 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="53" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="53" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="53" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="53" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -5917,12 +6178,12 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="53" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="53" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
@@ -5930,7 +6191,7 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="53" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -5938,12 +6199,12 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="53" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="53" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -5951,7 +6212,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="53" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
